--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463617.8456752816</v>
+        <v>453236.6067618306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>12908190.36482257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901941</v>
+        <v>3555535.184291202</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7090215.738763891</v>
+        <v>7520020.958112559</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>66.72457055526924</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>112.9037085228537</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>181.2635869532361</v>
       </c>
       <c r="U4" t="n">
-        <v>271.4905222450908</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>114.5265851634173</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>92.38090300811051</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>57.29215110549212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>19.53872709080452</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.48859337567315</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>158.4406291231596</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1370,13 +1372,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>220.969525980495</v>
       </c>
       <c r="V11" t="n">
-        <v>98.57988830334124</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>58.31517967031814</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>117.362130148408</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>288.6474346488186</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>70.13438451350515</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>114.0908538936406</v>
       </c>
       <c r="H19" t="n">
-        <v>82.77671483261204</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474295</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,16 +2247,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>47.97616502622241</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="X25" t="n">
-        <v>39.3963362682162</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>149.8682168106859</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2795,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2950,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.9649097056853</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3664,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>149.8682168106859</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,10 +3957,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>82.38632349887008</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>201.5220447611972</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1813.191253630123</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.290523643423</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="D2" t="n">
-        <v>962.9979028284233</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E2" t="n">
-        <v>537.0209629762809</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>111.8967811656811</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924752</v>
@@ -4340,16 +4342,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893167</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4367,13 +4369,13 @@
         <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>2110.867102439291</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630123</v>
+        <v>1699.147103607038</v>
       </c>
       <c r="Y2" t="n">
-        <v>1813.191253630123</v>
+        <v>1293.809833561929</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336854</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.8682361200903</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C4" t="n">
-        <v>517.8682361200903</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D4" t="n">
-        <v>354.551463246861</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E4" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924752</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668684</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U4" t="n">
-        <v>1733.504740916067</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.793273524096</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W4" t="n">
-        <v>1176.940869696609</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X4" t="n">
-        <v>934.3769731424138</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.0342048321559</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.1816444062347</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C5" t="n">
-        <v>160.1816444062347</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D5" t="n">
         <v>44.49822504924752</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002561</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103421</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>991.7500075300175</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X5" t="n">
-        <v>580.0300086977647</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y5" t="n">
-        <v>580.0300086977647</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4652,19 @@
         <v>595.1637600336854</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002561</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1047.64686728427</v>
       </c>
       <c r="C7" t="n">
-        <v>210.706430896394</v>
+        <v>875.674304163186</v>
       </c>
       <c r="D7" t="n">
-        <v>210.706430896394</v>
+        <v>712.3575312899567</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>546.1493254428102</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>374.2875512173706</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>208.0305815116027</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>64.23431301975714</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1706.719500860788</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1464.155604306594</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1237.812835996336</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1726.839139109241</v>
+        <v>470.47516490139</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.938409122541</v>
+        <v>470.47516490139</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924752</v>
@@ -4805,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596035</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596035</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580473</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462376</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2064.870212944033</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2064.870212944033</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1707.380798070282</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1707.380798070282</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630123</v>
+        <v>1295.66079923803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1813.191253630123</v>
+        <v>890.32352919292</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764434</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608814</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924752</v>
@@ -4996,16 +4998,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>897.3758948880899</v>
+        <v>502.687717120776</v>
       </c>
       <c r="C11" t="n">
-        <v>470.47516490139</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D11" t="n">
-        <v>470.47516490139</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924752</v>
@@ -5042,19 +5044,19 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L11" t="n">
-        <v>455.358312627159</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M11" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>1556.689382596035</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P11" t="n">
         <v>2107.354917580473</v>
@@ -5066,25 +5068,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>1676.41684598571</v>
       </c>
       <c r="V11" t="n">
-        <v>2125.335607711526</v>
+        <v>1318.927431111959</v>
       </c>
       <c r="W11" t="n">
-        <v>1728.944258011873</v>
+        <v>922.5360814123061</v>
       </c>
       <c r="X11" t="n">
-        <v>1317.22425917962</v>
+        <v>922.5360814123061</v>
       </c>
       <c r="Y11" t="n">
-        <v>1317.22425917962</v>
+        <v>922.5360814123061</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336854</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N12" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O12" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685.0860276212348</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>685.0860276212348</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0860276212348</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
         <v>626.1818057320246</v>
@@ -5224,25 +5226,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>685.0860276212348</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>448.8372874597989</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="C14" t="n">
-        <v>448.8372874597989</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="D14" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E14" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
         <v>44.49822504924752</v>
@@ -5276,52 +5278,52 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L14" t="n">
-        <v>572.9146475090618</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.618387380149</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>1899.618387380149</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>1542.128972506399</v>
+        <v>2106.363646251863</v>
       </c>
       <c r="W14" t="n">
-        <v>1145.737622806746</v>
+        <v>1709.97229655221</v>
       </c>
       <c r="X14" t="n">
-        <v>854.1745575049085</v>
+        <v>1298.252297719957</v>
       </c>
       <c r="Y14" t="n">
-        <v>448.8372874597989</v>
+        <v>892.9150276748471</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5360,16 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N15" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O15" t="n">
         <v>1302.520320645319</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1393.342889338594</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>966.4421593518939</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.191253630124</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>51.94486801115937</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>602.6104029955975</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>602.6104029955975</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>669.8354755761777</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N18" t="n">
-        <v>1220.501010560616</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1771.166545545054</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1771.166545545054</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.519148240033</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>629.546585118949</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D19" t="n">
-        <v>466.2298122457197</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="E19" t="n">
-        <v>466.2298122457197</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="F19" t="n">
-        <v>294.3680380202801</v>
+        <v>217.5460001670816</v>
       </c>
       <c r="G19" t="n">
-        <v>128.1110683145122</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2054.776204981511</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1774.591756481815</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.880289089844</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1218.027885262357</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1218.027885262357</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.6851169520987</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5753,43 +5755,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5835,13 +5837,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3270.011978872612</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>3098.039415751528</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.018283751469</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>1542.018283751469</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="X25" t="n">
-        <v>1502.224004692665</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.881236382407</v>
+        <v>4017.903765402535</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>188.2350251358961</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113951</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6266,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.9842634877775</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>758.0117003666935</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1589.056897064296</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1589.056897064296</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1346.493000510101</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1120.150232199843</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6461,52 +6463,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.355951603442</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6664,7 +6666,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>602.5219203155077</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6835,16 +6837,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>208.2661037548711</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7427,34 +7429,34 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.9842634877775</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>758.0117003666935</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7594,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1589.056897064296</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1346.493000510101</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1120.150232199843</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>804.1642048184415</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>377.2634748317415</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>377.2634748317415</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>377.2634748317415</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2634748317415</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924753</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>572.914647509062</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>1123.5801824935</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>804.1642048184415</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>804.1642048184415</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924753</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>44.49822504924753</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>44.49822504924753</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>595.1637600336857</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1145.829295018124</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.5835661822009</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>307.5835661822009</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>144.2667933089716</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>144.2667933089716</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668685</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894585</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394889</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002918</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>927.6499241754307</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>724.0923032045245</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>497.7495348942665</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7988,7 +7990,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>300.3028744740154</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716181</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L3" t="n">
         <v>578.7428998298235</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>578.6270469489273</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>268.1828480767089</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>205.7998844961772</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>465.9489063640448</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>453.3222319052608</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8778,16 +8780,16 @@
         <v>579.3245936279219</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>461.402696225706</v>
       </c>
       <c r="O12" t="n">
         <v>579.3997028378161</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
-        <v>572.0660045132433</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N15" t="n">
-        <v>179.6167914733355</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>577.9986543204226</v>
@@ -9164,28 +9166,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366446</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>91.00089423008578</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9483,7 +9485,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>1089.749849175</v>
@@ -9492,7 +9494,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644426</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843436</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10671,10 +10673,10 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>280.9771495655156</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11075,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8019602116015</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>195.5685862122802</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500402</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>784.7707473298946</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>333.5711012311766</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22607,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>279.5237276798029</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312294</v>
       </c>
       <c r="U4" t="n">
-        <v>5.892081769607955</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>304.5331094434324</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22835,22 +22837,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>300.046533194546</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>112.960686384381</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>79.23215548632226</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.1612872729416</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23030,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23072,13 +23074,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>60.27568612265358</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23276,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>34.80183432905687</v>
       </c>
       <c r="V11" t="n">
-        <v>255.3346324216718</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>106.2309441183568</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23500,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>236.552390576605</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>118.9553641951116</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>348.9253100933445</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>50.5035461150696</v>
       </c>
       <c r="H19" t="n">
-        <v>59.58159097431511</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.1620925624305</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>198.0291291640731</v>
       </c>
       <c r="X25" t="n">
-        <v>200.7419213204367</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>11.81538833381111</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24850,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.11443092147007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>59.64236734312286</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>11.81538833381111</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>325.2164753450601</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>38.61621282745577</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466187.6339687135</v>
+        <v>466187.6339687136</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466187.6339687136</v>
+        <v>773322.5109530857</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773322.5109530858</v>
+        <v>773322.5109530857</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773322.5109530858</v>
+        <v>773322.5109530857</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466187.6339687136</v>
+        <v>773322.5109530857</v>
       </c>
     </row>
   </sheetData>
@@ -26326,25 +26328,25 @@
         <v>144000.362781502</v>
       </c>
       <c r="G2" t="n">
-        <v>144000.362781502</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="H2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="I2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="K2" t="n">
-        <v>238862.9213334153</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="L2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="M2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="N2" t="n">
         <v>238862.9213334151</v>
@@ -26353,7 +26355,7 @@
         <v>238862.9213334152</v>
       </c>
       <c r="P2" t="n">
-        <v>144000.362781502</v>
+        <v>238862.9213334151</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>17703.77972371004</v>
+      </c>
+      <c r="C4" t="n">
         <v>17703.77972371005</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17703.77972371004</v>
       </c>
       <c r="D4" t="n">
         <v>17703.77972371005</v>
@@ -26430,7 +26432,7 @@
         <v>17703.77972371005</v>
       </c>
       <c r="G4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26457,7 +26459,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>-127554.4013943733</v>
       </c>
       <c r="C6" t="n">
-        <v>58850.33202036381</v>
+        <v>58850.3320203639</v>
       </c>
       <c r="D6" t="n">
         <v>58850.33202036387</v>
@@ -26534,16 +26536,16 @@
         <v>92477.93202036386</v>
       </c>
       <c r="G6" t="n">
-        <v>92477.93202036388</v>
+        <v>-66361.21780109493</v>
       </c>
       <c r="H6" t="n">
-        <v>-63271.56789843557</v>
+        <v>131680.5720890739</v>
       </c>
       <c r="I6" t="n">
-        <v>131680.572089074</v>
+        <v>131680.5720890739</v>
       </c>
       <c r="J6" t="n">
-        <v>-13853.09784574253</v>
+        <v>-13853.09784574257</v>
       </c>
       <c r="K6" t="n">
         <v>131680.5720890741</v>
@@ -26552,16 +26554,16 @@
         <v>131680.5720890739</v>
       </c>
       <c r="M6" t="n">
-        <v>131680.5720890741</v>
+        <v>131680.572089074</v>
       </c>
       <c r="N6" t="n">
+        <v>131680.572089074</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-42203.2770046707</v>
+      </c>
+      <c r="P6" t="n">
         <v>131680.5720890739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>131680.572089074</v>
-      </c>
-      <c r="P6" t="n">
-        <v>92477.93202036385</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34708,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>263.0232516395694</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155939</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L3" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O5" t="n">
-        <v>533.7539620806203</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>556.2278131155939</v>
       </c>
       <c r="L6" t="n">
+        <v>245.6677613624794</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>167.4878420635542</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="M8" t="n">
-        <v>48.74406945557163</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>556.2278131155939</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="O12" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="P14" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N14" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O14" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>158.2737632597939</v>
+      </c>
+      <c r="N15" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N15" t="n">
-        <v>158.2737632597939</v>
-      </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>556.2278131155939</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806206</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1066.653068662672</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.80031487885611</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953426</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.8052598432934</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>181.2265984013702</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155941</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453236.6067618306</v>
+        <v>449913.8410639698</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291202</v>
+        <v>3555535.184291205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7520020.958112559</v>
+        <v>7520020.958112561</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>120.4128486741864</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>112.9037085228537</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T4" t="n">
-        <v>181.2635869532361</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>88.03728694832347</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>92.38090300811051</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.53872709080452</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>158.4406291231596</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.6110541533863</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399245</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>260.4446813871638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>39.48379506879007</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>220.969525980495</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>118.6702913178327</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>76.45328601277593</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>117.362130148408</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>63.08758251923039</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0908538936406</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>47.97616502622241</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>74.07475062513896</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3325,7 +3325,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.9614692703988</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="C2" t="n">
-        <v>873.9614692703988</v>
+        <v>1440.521107601925</v>
       </c>
       <c r="D2" t="n">
-        <v>873.9614692703988</v>
+        <v>1017.228486786925</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>591.2515469347831</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>166.1273651241833</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>166.1273651241833</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924752</v>
@@ -4366,16 +4366,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="W2" t="n">
-        <v>2110.867102439291</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.147103607038</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.809833561929</v>
+        <v>1867.421837588625</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336854</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M3" t="n">
-        <v>1696.494830002561</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002561</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.9957668907073</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C4" t="n">
-        <v>374.0232037696233</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D4" t="n">
-        <v>210.706430896394</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
         <v>44.49822504924752</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T4" t="n">
-        <v>2041.81672018638</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U4" t="n">
-        <v>1761.632271686684</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V4" t="n">
-        <v>1479.920804294713</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W4" t="n">
-        <v>1205.068400467226</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X4" t="n">
-        <v>962.5045039130309</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y4" t="n">
-        <v>736.161735602773</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>894.6915758509472</v>
+        <v>502.687717120776</v>
       </c>
       <c r="C5" t="n">
-        <v>467.7908458642473</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924752</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074139</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074139</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>549.9383681074139</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091852</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2135.984699989322</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2135.984699989322</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2135.984699989322</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2135.984699989322</v>
       </c>
       <c r="W5" t="n">
-        <v>2131.59720901984</v>
+        <v>1739.593350289668</v>
       </c>
       <c r="X5" t="n">
-        <v>1719.877210187587</v>
+        <v>1327.873351457416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.539940142477</v>
+        <v>922.5360814123061</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336854</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L6" t="n">
         <v>838.37484378254</v>
@@ -4658,10 +4658,10 @@
         <v>838.37484378254</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1047.64686728427</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>875.674304163186</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>712.3575312899567</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>546.1493254428102</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>374.2875512173706</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>208.0305815116027</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>64.23431301975714</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1981.571904688275</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1981.571904688275</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1706.719500860788</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1464.155604306594</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1237.812835996336</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>470.47516490139</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>470.47516490139</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>470.47516490139</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
         <v>44.49822504924752</v>
@@ -4807,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L8" t="n">
-        <v>572.9146475090618</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>572.9146475090618</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462376</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2064.870212944033</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U8" t="n">
-        <v>2064.870212944033</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="V8" t="n">
-        <v>1707.380798070282</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="W8" t="n">
-        <v>1707.380798070282</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X8" t="n">
-        <v>1295.66079923803</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y8" t="n">
-        <v>890.32352919292</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132766</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924752</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1961.835816717766</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>502.687717120776</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C11" t="n">
-        <v>502.687717120776</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D11" t="n">
-        <v>79.39509630577631</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E11" t="n">
-        <v>79.39509630577631</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F11" t="n">
-        <v>79.39509630577631</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G11" t="n">
         <v>79.39509630577631</v>
@@ -5041,25 +5041,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336854</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L11" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N11" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O11" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q11" t="n">
         <v>2107.354917580473</v>
@@ -5068,25 +5068,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335516</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="T11" t="n">
-        <v>1899.618387380149</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="U11" t="n">
-        <v>1676.41684598571</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="V11" t="n">
-        <v>1318.927431111959</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="W11" t="n">
-        <v>922.5360814123061</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="X11" t="n">
-        <v>922.5360814123061</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="Y11" t="n">
-        <v>922.5360814123061</v>
+        <v>2185.028631180769</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M12" t="n">
-        <v>866.8612493132766</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N12" t="n">
+        <v>751.8547856608814</v>
+      </c>
+      <c r="O12" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>720.7977379486854</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924752</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.872639149549</v>
+        <v>1934.907223852387</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.872639149549</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.9150276748471</v>
+        <v>1399.725618125736</v>
       </c>
       <c r="C14" t="n">
-        <v>892.9150276748471</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="D14" t="n">
-        <v>469.6224068598473</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>546.8479482868937</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>121.7237664762939</v>
       </c>
       <c r="G14" t="n">
         <v>44.49822504924752</v>
@@ -5284,22 +5284,22 @@
         <v>957.767218850581</v>
       </c>
       <c r="L14" t="n">
-        <v>957.767218850581</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M14" t="n">
-        <v>957.767218850581</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N14" t="n">
-        <v>957.767218850581</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O14" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462376</v>
@@ -5314,16 +5314,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.363646251863</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.97229655221</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X14" t="n">
-        <v>1298.252297719957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y14" t="n">
-        <v>892.9150276748471</v>
+        <v>1819.573982417266</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M15" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259626</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259626</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>720.7977379486854</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924752</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>910.9637066607511</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>552.7245472657505</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>389.4077743925212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>389.4077743925212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>217.5460001670816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,28 +5761,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1550.684777446425</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402535</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4017.903765402535</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4017.903765402535</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>4017.903765402535</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>188.2350251358961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>903.7433331113951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1833.368380730672</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.65448214973</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3813.905540636431</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O26" t="n">
-        <v>4659.050190787243</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6268,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818556</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,37 +7420,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>275.5106105659859</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M44" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
         <v>274.1644876312681</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>542.3310383704945</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642096</v>
+        <v>301.3352940721923</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8233,13 +8233,13 @@
         <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489273</v>
+        <v>542.3310383704945</v>
       </c>
       <c r="L6" t="n">
-        <v>268.1828480767089</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7998844961772</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8540,10 +8540,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>372.7867989824571</v>
       </c>
       <c r="N9" t="n">
-        <v>465.9489063640448</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -8704,13 +8704,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>452.5855512828691</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279219</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N12" t="n">
-        <v>461.402696225706</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>579.3997028378161</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8932,7 +8932,7 @@
         <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721923</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8941,7 +8941,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>181.6704383876108</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>593.8031749258253</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3705437721218</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
         <v>577.5708413291355</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>371.4608596749578</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330639</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>165.0112248015704</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.2202743644426</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>129.8669649843436</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>809.386345155451</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>195.5685862122802</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>848.7638096822436</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11384,7 +11384,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>784.7707473298946</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>174.4768460665192</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>279.5237276798029</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -22755,10 +22755,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T4" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>15.28633423726752</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22846,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>300.046533194546</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>79.23215548632226</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23074,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>60.27568612265358</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0.1603061561654897</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919273</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.44967133088761</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.83982611680092</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>34.80183432905687</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>122.2356629785262</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>323.8423857736699</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23554,13 +23554,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>236.552390576605</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>177.0506750694225</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>50.5035461150696</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.1620925624305</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>198.0291291640731</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.759898196019265</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466187.6339687135</v>
+        <v>466187.6339687136</v>
       </c>
     </row>
     <row r="6">
@@ -26328,25 +26328,25 @@
         <v>144000.362781502</v>
       </c>
       <c r="G2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="H2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="I2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="J2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="K2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="L2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="M2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="N2" t="n">
         <v>238862.9213334151</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>173883.8490937447</v>
+        <v>173883.8490937448</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="C4" t="n">
         <v>17703.77972371005</v>
@@ -26484,34 +26484,34 @@
         <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127554.4013943733</v>
+        <v>-128163.4471068629</v>
       </c>
       <c r="C6" t="n">
-        <v>58850.3320203639</v>
+        <v>58241.28630787421</v>
       </c>
       <c r="D6" t="n">
-        <v>58850.33202036387</v>
+        <v>58241.28630787415</v>
       </c>
       <c r="E6" t="n">
-        <v>92477.93202036389</v>
+        <v>91868.88630787417</v>
       </c>
       <c r="F6" t="n">
-        <v>92477.93202036386</v>
+        <v>91868.88630787417</v>
       </c>
       <c r="G6" t="n">
-        <v>-66361.21780109493</v>
+        <v>-66412.24846327922</v>
       </c>
       <c r="H6" t="n">
-        <v>131680.5720890739</v>
+        <v>131629.5414268897</v>
       </c>
       <c r="I6" t="n">
-        <v>131680.5720890739</v>
+        <v>131629.5414268897</v>
       </c>
       <c r="J6" t="n">
-        <v>-13853.09784574257</v>
+        <v>-13904.12850792685</v>
       </c>
       <c r="K6" t="n">
-        <v>131680.5720890741</v>
+        <v>131629.5414268896</v>
       </c>
       <c r="L6" t="n">
-        <v>131680.5720890739</v>
+        <v>131629.5414268897</v>
       </c>
       <c r="M6" t="n">
-        <v>131680.572089074</v>
+        <v>131629.5414268897</v>
       </c>
       <c r="N6" t="n">
-        <v>131680.572089074</v>
+        <v>131629.5414268897</v>
       </c>
       <c r="O6" t="n">
-        <v>-42203.2770046707</v>
+        <v>-42254.30766685507</v>
       </c>
       <c r="P6" t="n">
-        <v>131680.5720890739</v>
+        <v>131629.5414268897</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>519.9318045371612</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="L3" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="M3" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>158.2737632597938</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>144.2794790315867</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>556.2278131155939</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>519.9318045371612</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L6" t="n">
-        <v>245.6677613624794</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>167.4878420635542</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35260,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>349.6900184701291</v>
       </c>
       <c r="N9" t="n">
-        <v>444.6058781505031</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="P11" t="n">
-        <v>415.0101894726378</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N12" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>556.2278131155939</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>158.2737632597939</v>
       </c>
       <c r="N15" t="n">
         <v>556.2278131155939</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>349.6900184701291</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>267.0533324336321</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>142.2641865125919</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.80031487885611</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>94.10236418953426</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>771.0743027228281</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>174.9574718789468</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>811.4841868477976</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
